--- a/mfa/S_cerevisiae/run_files/Plim__D_0_16/data_expmt1.xlsx
+++ b/mfa/S_cerevisiae/run_files/Plim__D_0_16/data_expmt1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MSData" sheetId="1" state="visible" r:id="rId2"/>
@@ -716,8 +716,8 @@
   </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1424,8 +1424,8 @@
   </sheetPr>
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A31" activeCellId="1" sqref="E2:E26 A31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1465,8 +1465,7 @@
         <v>0.16</v>
       </c>
       <c r="C3" s="2" t="n">
-        <f aca="false">MIN(0.1*B3,0.01)</f>
-        <v>0.01</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1477,8 +1476,8 @@
         <v>9.58</v>
       </c>
       <c r="C4" s="2" t="n">
-        <f aca="false">MIN(0.2*B4)</f>
-        <v>1.916</v>
+        <f aca="false">MIN(0.1*B4, 0.957734539822013 )</f>
+        <v>0.957734539822013</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1798,8 +1797,8 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E2:E26 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
